--- a/problem_description.xlsx
+++ b/problem_description.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/robert_gabriel_gaube_intel_com/Documents/Desktop/Work/Python/Reports/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/robert_gabriel_gaube_intel_com/Documents/Desktop/Work/Python/Reports/Analize_Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_F25DC773A252ABDACC1048C6D95F6FDA5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A3757357-B803-4EAA-9FF1-3A179E572C77}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048C6D95F6FDA5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85326EB3-5DDC-416B-B11B-25B4858D127A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>Duplicate KVM name</t>
+  </si>
+  <si>
+    <t>OC215</t>
+  </si>
+  <si>
+    <t>QDF entry '' must have exactly 4 characters</t>
   </si>
 </sst>
 </file>
@@ -582,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
@@ -873,6 +879,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/problem_description.xlsx
+++ b/problem_description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/robert_gabriel_gaube_intel_com/Documents/Desktop/Work/Python/Reports/Analize_Problems/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC1048C6D95F6FDA5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85326EB3-5DDC-416B-B11B-25B4858D127A}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_F25DC773A252ABDACC1048C6D95F6FDA5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE0A99B9-C3EB-48D3-B338-53AE4C23CD4D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>QDF entry '' must have exactly 4 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -588,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,281 +615,289 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B37" s="3" t="s">
         <v>71</v>
       </c>
     </row>
